--- a/xlsx/凯尔森_intext.xlsx
+++ b/xlsx/凯尔森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>凯尔森</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
+    <t>奥匈帝国</t>
   </si>
   <si>
     <t>政策_政策_政治_凯尔森</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/20th-century_philosophy</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF%C2%B7%E8%B2%BB%E8%8B%B1%E6%A0%BC</t>
   </si>
   <si>
-    <t>漢斯·費英格</t>
+    <t>汉斯·费英格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/H%C2%B7L%C2%B7A%C2%B7%E5%93%88%E7%89%B9</t>
@@ -209,27 +209,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%AF%A6%E8%AD%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法律實證主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%96%BD%E7%B1%B3%E7%89%B9</t>
   </si>
   <si>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -281,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -293,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1590,7 +1584,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1616,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1645,10 +1639,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1674,10 +1668,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1703,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1732,10 +1726,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1761,10 +1755,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1790,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1819,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1848,10 +1842,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1877,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1906,10 +1900,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1935,10 +1929,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1964,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1993,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2022,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2051,10 +2045,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2080,10 +2074,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2109,10 +2103,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>6</v>
@@ -2138,10 +2132,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>101</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
